--- a/time-series_ex.xlsx
+++ b/time-series_ex.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yoshi\Documents\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="25200" windowHeight="12045"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19440" windowHeight="12045"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -77,7 +72,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -347,7 +342,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -357,9 +352,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C203"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" workbookViewId="0">
-      <selection activeCell="D97" sqref="D97"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <sheetData>
